--- a/Excel/MyExcel.xlsx
+++ b/Excel/MyExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\sniggle\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521E06DE-3013-441A-A0FC-55861480849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510D854-370F-44E1-82DE-122332871785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjzkjKNeJDeqZ7YaFRj8jh8+Z6rFw=="/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
   <si>
     <t>ReferenceCode</t>
   </si>
@@ -490,6 +490,9 @@
   <si>
     <t>GroupId</t>
   </si>
+  <si>
+    <t>Night Dresses</t>
+  </si>
 </sst>
 </file>
 
@@ -838,9 +841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL6" sqref="AL6"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39003,12 +39006,12 @@
   <pageSetup orientation="landscape"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="178" yWindow="289" count="14">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="178" yWindow="289" count="15">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$D$3:$D$51</xm:f>
+            <xm:f>Sheet2!$D$3:$D$52</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:L1000</xm:sqref>
+          <xm:sqref>H2:L1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from range Sheet2!AI2:AI1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -39088,6 +39091,12 @@
           </x14:formula1>
           <xm:sqref>AN2:AN1000</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B603194-63F7-4B52-A822-3372572EB84E}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$3:$D$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1000</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -39098,8 +39107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1034"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -39834,7 +39843,9 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="E52" s="12"/>
       <c r="F52" s="9"/>
     </row>
